--- a/WSTemplateCodeR.xlsx
+++ b/WSTemplateCodeR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://inceonline-my.sharepoint.com/personal/arthur_j_inceonline_co_uk/Documents/Documents/GitHub/DWResults/Copy DW-Race-R/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="8_{125F3DA8-FF33-4202-8422-66D111047C45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{DEC1A6CF-2633-4410-AB38-920280C4B1BA}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="8_{125F3DA8-FF33-4202-8422-66D111047C45}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{A70A2818-CD49-4960-9222-DDA6D1AF3769}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D27C56C6-B0F3-4537-BE06-7BC571FE3EE9}"/>
+    <workbookView xWindow="-1020" yWindow="12000" windowWidth="35040" windowHeight="14112" xr2:uid="{D27C56C6-B0F3-4537-BE06-7BC571FE3EE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -573,12 +573,23 @@
   <dimension ref="A1:Y11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="8" max="8" width="29.5546875" customWidth="1"/>
+    <col min="9" max="9" width="21.88671875" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" customWidth="1"/>
+    <col min="12" max="12" width="20.88671875" customWidth="1"/>
+    <col min="13" max="13" width="15.88671875" customWidth="1"/>
+    <col min="14" max="14" width="13.77734375" customWidth="1"/>
+    <col min="15" max="15" width="11.5546875" customWidth="1"/>
+    <col min="16" max="16" width="17.6640625" customWidth="1"/>
+    <col min="18" max="18" width="15.5546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -643,7 +654,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -734,7 +745,7 @@
         <v>B</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -825,7 +836,7 @@
         <v>B</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -833,7 +844,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -841,7 +852,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -849,12 +860,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -866,21 +877,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010023793A98E1994646AFC14C2AE43A5128" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0bc70a818cc305f879f9d64280d8375e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="a9ba2121-aeca-463f-a647-7d96040068ae" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3ee284a78b2c7c85e5aff761324b1dd7" ns3:_="">
     <xsd:import namespace="a9ba2121-aeca-463f-a647-7d96040068ae"/>
@@ -1044,24 +1040,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E8B49C6-D1FC-4F82-98A7-74FA1C2C6F74}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9D5EDF4-E68E-458C-AF28-CE76169AB714}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F6D83145-A5AB-4AB4-BA16-3A267A32CE53}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1077,4 +1071,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9D5EDF4-E68E-458C-AF28-CE76169AB714}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E8B49C6-D1FC-4F82-98A7-74FA1C2C6F74}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>